--- a/code/files/Table2.xlsx
+++ b/code/files/Table2.xlsx
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +368,7 @@
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,183 +379,184 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>200</v>
       </c>
       <c r="B2" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>200</v>
       </c>
       <c r="B4" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>250</v>
       </c>
       <c r="B7" s="1">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>250</v>
       </c>
       <c r="B8" s="1">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>250</v>
       </c>
       <c r="B9" s="1">
-        <v>5.4</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>250</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>250</v>
       </c>
       <c r="B11" s="1">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>300</v>
       </c>
       <c r="B12" s="1">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>300</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>300</v>
       </c>
       <c r="B14" s="1">
-        <v>4.8</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>300</v>
       </c>
       <c r="B15" s="1">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>300</v>
       </c>
       <c r="B16" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -564,10 +565,10 @@
         <v>350</v>
       </c>
       <c r="B17" s="1">
-        <v>1.1000000000000001</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -576,10 +577,10 @@
         <v>350</v>
       </c>
       <c r="B18" s="1">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -588,10 +589,10 @@
         <v>350</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -600,10 +601,10 @@
         <v>350</v>
       </c>
       <c r="B20" s="1">
-        <v>6.6</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -612,10 +613,10 @@
         <v>350</v>
       </c>
       <c r="B21" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -624,10 +625,10 @@
         <v>400</v>
       </c>
       <c r="B22" s="1">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -636,10 +637,10 @@
         <v>400</v>
       </c>
       <c r="B23" s="1">
-        <v>2.2999999999999998</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -648,10 +649,10 @@
         <v>400</v>
       </c>
       <c r="B24" s="1">
-        <v>3.7</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -660,10 +661,10 @@
         <v>400</v>
       </c>
       <c r="B25" s="1">
-        <v>5.8</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -672,10 +673,10 @@
         <v>400</v>
       </c>
       <c r="B26" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -684,10 +685,10 @@
         <v>425</v>
       </c>
       <c r="B27" s="1">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -696,10 +697,10 @@
         <v>425</v>
       </c>
       <c r="B28" s="1">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -708,10 +709,10 @@
         <v>425</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -720,10 +721,10 @@
         <v>425</v>
       </c>
       <c r="B30" s="1">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -732,10 +733,10 @@
         <v>425</v>
       </c>
       <c r="B31" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -744,10 +745,10 @@
         <v>425</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -756,10 +757,10 @@
         <v>435</v>
       </c>
       <c r="B33" s="1">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -768,10 +769,10 @@
         <v>435</v>
       </c>
       <c r="B34" s="1">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -780,10 +781,10 @@
         <v>435</v>
       </c>
       <c r="B35" s="1">
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -792,10 +793,10 @@
         <v>435</v>
       </c>
       <c r="B36" s="1">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -804,10 +805,10 @@
         <v>435</v>
       </c>
       <c r="B37" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -816,10 +817,10 @@
         <v>445</v>
       </c>
       <c r="B38" s="1">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="C38" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -828,10 +829,10 @@
         <v>445</v>
       </c>
       <c r="B39" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -840,10 +841,10 @@
         <v>445</v>
       </c>
       <c r="B40" s="1">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -852,10 +853,10 @@
         <v>445</v>
       </c>
       <c r="B41" s="1">
-        <v>4.2</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -864,10 +865,10 @@
         <v>445</v>
       </c>
       <c r="B42" s="1">
-        <v>6.2</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -876,10 +877,10 @@
         <v>455</v>
       </c>
       <c r="B43" s="1">
-        <v>0.56999999999999995</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="C43" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -888,10 +889,10 @@
         <v>455</v>
       </c>
       <c r="B44" s="1">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -900,10 +901,10 @@
         <v>455</v>
       </c>
       <c r="B45" s="1">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -912,10 +913,10 @@
         <v>455</v>
       </c>
       <c r="B46" s="1">
-        <v>2.2999999999999998</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -924,10 +925,10 @@
         <v>455</v>
       </c>
       <c r="B47" s="1">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -936,10 +937,10 @@
         <v>455</v>
       </c>
       <c r="B48" s="1">
-        <v>5.7</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E48" s="1"/>
     </row>
